--- a/railway/crh.xlsx
+++ b/railway/crh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24500" yWindow="680" windowWidth="39200" windowHeight="34280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
   <si>
     <t>北京</t>
     <rPh sb="0" eb="1">
@@ -379,150 +379,6 @@
     <t>东莞</t>
     <rPh sb="0" eb="1">
       <t>aiap</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京张350 +京兰5, 京沪380 +5
-京沪350二线 +5, 京沈350 +京哈5
-京广350 +5, 京九350 +5
-京津350城际 /2, 京唐250城际 /2
-京石300城际 /2</t>
-    <rPh sb="0" eb="1">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xt</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>fg</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>xg</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ipbj</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ivfh</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>yvhk</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>dgud</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京沪380 +5, 京沪350二线 +5
-沪昆350 +5, 沪通200
-沪杭350城际 /2, 沪宁350城际 /2
-沪苏湖350城际 /2, 北沿江350 +5</t>
-    <rPh sb="0" eb="1">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>fg</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>xg</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>jxx</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>cep</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>syy</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>alw</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ide</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>imia</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,170 +427,6 @@
     </rPh>
     <rPh sb="45" eb="46">
       <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京兰350东, 京兰200西</t>
-    <rPh sb="0" eb="1">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>sghg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京沪380北, 京沪380南
-北沿江350东 /2, 北沿江350西 /2
-沪宁350北 /2, 沪宁350南 /2</t>
-    <rPh sb="0" eb="1">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>iyps</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京沪380北, 京沪380南
-济郑350, 济青350
-济青250 /2, 济泰250城际 /2</t>
-    <rPh sb="0" eb="1">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>iyj</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>udb</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>iyj</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>gef</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>iyj</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>gef</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>iyj</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>dwiu</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京福350北, 京福350南
-郑合350, 合九350
-合杭350, 合武250
-合宁250, 合新(沂)250 /2</t>
-    <rPh sb="0" eb="1">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>udb</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>syyt</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>gaic</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>usr</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>irh</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -865,89 +557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合福350 +5京福, 甬福250
-福厦350, 福厦250 /2
-昌福200, 福平(潭)250城际 /2</t>
-    <rPh sb="0" eb="1">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>cej</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>dduy</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>pydd</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>dduy</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>gu</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>isj</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福厦350, 福厦250 /2
-厦深250, 赣厦200</t>
-    <rPh sb="0" eb="1">
-      <t>pygl</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>dduy</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dduy</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>dduy</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ipw</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>gan'zhou</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>dduy</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>京广350北, 京广350南
 西武350, 武九250
 合武250, 汉宜250
@@ -1003,36 +612,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>京九350, 厦深250
-广深200城际 /2, 广深350
-深茂200, 穗莞深200城际 /2</t>
-    <rPh sb="0" eb="1">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xia'shen'gao'tie</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>yyip</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yyip</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ipad</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>mao'min</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贵广300北, 贵广300南
 南广250东, 南广250西
 广佛200城际 /2, 广珠250北
@@ -1147,29 +726,6 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>peg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包海350 +5, 西环200
-东环250</t>
-    <rPh sb="0" eb="1">
-      <t>qn</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>itx</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ggi</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ggi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1311,52 +867,6 @@
     </rPh>
     <rPh sb="75" eb="76">
       <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成渝350, 渝万250
-渝贵200, 渝昆350
-西渝350, 渝利200
-渝黔(江)350 +渝厦5</t>
-    <rPh sb="0" eb="1">
-      <t>dniw</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>iwgj</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dnv</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>iwgj</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>khgm</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>iwgj</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>jxx</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>sgiw</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>iwgj</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>tjh</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>iwgj</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>lfia</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ia</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1487,118 +997,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>京沈350, 秦沈250
-哈大350北, 哈大350南
-沈鞍(山)250城际 /2, 沈丹(东)200城际 /2
-沈抚(顺)250城际 /2, 沈铁(岭)250城际 /2</t>
-    <rPh sb="0" eb="1">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ipbj</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dwt</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ipq</t>
-    </rPh>
-    <rPh sb="13" eb="14">
+    <t>哈大350北, 哈大350南
+长吉晖(春)250 /2, 长辽(源)250 /2</t>
+    <rPh sb="0" eb="1">
       <t>kwg</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>dd</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>kwg</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>dd</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ipq</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>an'san</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>mmmm</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ipbj</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>dan'dong</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ipq</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>rfq</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>kdm</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ipbj</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>qrw</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>mwyc</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈大350 +5, 丹(东)大200</t>
-    <rPh sb="0" eb="1">
-      <t>kwgk</t>
     </rPh>
     <rPh sb="1" eb="2">
       <t>dd</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>dan</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>dd</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈大350北, 哈大350南
-长吉晖(春)250 /2, 长辽(源)250 /2</t>
-    <rPh sb="0" eb="1">
-      <t>kwg</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>dd</t>
-    </rPh>
     <rPh sb="5" eb="6">
       <t>ux</t>
     </rPh>
@@ -1631,157 +1037,6 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>idr</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈大350 +5, 绥(芬河)满(州里)250东
-绥满250西, 哈佳250 /2</t>
-    <rPh sb="0" eb="1">
-      <t>kwg</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>dd</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xev</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>awv</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>isk</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>iauj</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>jfd</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>xev</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>iauj</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>kwg</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>wffg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京沪380北, 京沪380南
-合宁250, 宁启(东)200
-宁杭350, 宁安(庆)250
-沪宁350城际 /2, 北沿江350 /2</t>
-    <rPh sb="0" eb="1">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ynk</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>sym</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>pv</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>yd</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>imk</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京沪380北, 京沪380南
-北沿江350东 /2, 北沿江350西 /2
-沪宁350北 /2, 沪宁350南 /2
-苏嘉(兴)250城际 /2, 苏(南)通250 /2</t>
-    <rPh sb="21" eb="22">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>alw</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>fkuk</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>iw</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>alw</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>cep</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1827,41 +1082,6 @@
     </rPh>
     <rPh sb="42" eb="43">
       <t>fu'yang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>济青350 +青银5, 济青250 /2
-青荣(城)250, 青连200</t>
-    <rPh sb="0" eb="1">
-      <t>iyj</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>gef</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>geqv</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>iyj</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>gef</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>gef</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>aps</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>fdn</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>gef</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>lpk</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2009,102 +1229,6 @@
       <t>zhu'zou</t>
     </rPh>
     <rPh sb="65" eb="66">
-      <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京广350 +5, 贵广300 +兰广5
-南广250 +广昆5, 广汕(尾)350 /2
-广珠250城际, 广深350
-广深200城际 /2, 广清(远)200城际 /2
-穗莞深200城际 /2
-广佛肇(庆)200城际 /2</t>
-    <rPh sb="0" eb="1">
-      <t>yiyy</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>khgm</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>fmyy</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>jxx</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ntf</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>gri</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>yyip</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>yyip</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>yyai</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ige</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>fqp</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>tgjn</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>apf</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>ipw</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>wxmm</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>zhao'qin</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ydi</t>
-    </rPh>
-    <rPh sb="107" eb="108">
       <t>fdbf</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2191,139 +1315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贵南350, 南广250
-南昆250, 南钦(州)250
-柳南250</t>
-    <rPh sb="0" eb="1">
-      <t>khgm</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>jxx</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>qqw</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>sqyt</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昌赣(州)350, 昌九(江)350
-沪昆350东, 沪昆350西
-昌九250城际 /2, 昌景黄350 /2
-昌福200</t>
-    <rPh sb="0" eb="1">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>gan'zhou</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ia</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>iyjx</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>iyjx</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>jyi</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>amw</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>pyg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合九350, 昌九350
-昌九250城际 /2, 武九250
-贵(池)九250 /2</t>
-    <rPh sb="0" eb="1">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>jjvt</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>gaic</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>khgm</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ibn</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>vt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>渝贵200, 成贵250
 沪昆350东, 沪昆350西
 贵广300, 贵南350
@@ -2379,116 +1370,911 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南昆250 +广昆5, 沪昆350 +5
-渝昆350 +5, 昆曲(靖)250城际 /2
-昆大(理)200城际 /2</t>
-    <rPh sb="0" eb="1">
+    <t>兰新350东, 兰新350西
+西(宁)成200</t>
+    <rPh sb="0" eb="1">
+      <t>ufus</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ufus</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>sghg</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>sghg</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>dn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京沪380北, 京沪380南
+沪宁350北 /2, 沪宁350南 /2
+苏嘉(兴)250城际 /2, 苏(南)通250 /2</t>
+    <rPh sb="20" eb="21">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="31" eb="32">
       <t>fm</t>
     </rPh>
+    <rPh sb="36" eb="37">
+      <t>alw</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fkuk</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>iw</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>alw</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>cep</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京沪380北, 京沪380南
+沪宁350北 /2, 沪宁350南 /2</t>
+    <rPh sb="0" eb="1">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>iyps</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>fm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京沪380北, 京沪380南
+合宁250, 宁启(东)200
+宁杭350, 宁安(庆)250
+沪宁350城际 /2, 北沿江350</t>
+    <rPh sb="0" eb="1">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ynk</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>sym</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>pv</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>yd</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>imk</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商丘</t>
+    <rPh sb="0" eb="1">
+      <t>shang'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京九350北, 京九350南
+连新350东, 连新350西</t>
+    <rPh sb="0" eb="1">
+      <t>yiu</t>
+    </rPh>
     <rPh sb="1" eb="2">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>lpu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>usr</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>lpk</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>usr</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>sghg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京沪380 +10, 京沪350二线 +10
+沪昆350 +10, 沪通200
+沪杭350城际 /2, 沪宁350城际 /2
+沪苏湖350城际 /2, 北沿江350 +10</t>
+    <rPh sb="0" eb="1">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fg</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xg</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="24" eb="25">
       <t>jxx</t>
     </rPh>
+    <rPh sb="34" eb="35">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>cep</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>syy</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>alw</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ide</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>imia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈大350 +10, 丹(东)大200</t>
+    <rPh sb="0" eb="1">
+      <t>kwgk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dd</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京张350 +10京兰, 京沪380 +10
+京沪350二线 +10 京沈350 +10京哈
+京广350 +10, 京九350 +10
+京津350城际 /2, 京唐250城际 /2
+京石300城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xt</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>fg</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xg</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ipbj</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ivfh</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>yvhk</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>dgud</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成渝350, 渝万250
+渝贵200, 渝昆350
+西渝350, 渝利200
+渝黔(江)350 +10渝厦</t>
+    <rPh sb="0" eb="1">
+      <t>dniw</t>
+    </rPh>
     <rPh sb="7" eb="8">
-      <t>yyyt</t>
+      <t>iwgj</t>
     </rPh>
     <rPh sb="8" eb="9">
+      <t>dnv</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>iwgj</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>khgm</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>iwgj</t>
+    </rPh>
+    <rPh sb="21" eb="22">
       <t>jxx</t>
     </rPh>
+    <rPh sb="26" eb="27">
+      <t>sgiw</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>iwgj</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>tjh</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>iwgj</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>lfia</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京沈350, 秦(皇岛)沈250
+哈大350北, 哈大350南
+沈鞍(山)250城际 /2, 沈丹(东)200城际 /2
+沈抚(顺)250城际 /2, 沈铁(岭)250城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ipbj</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dwt</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>rgf</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qynm</t>
+    </rPh>
     <rPh sb="12" eb="13">
+      <t>ipq</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>kwg</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>dd</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>kwg</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>dd</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ipq</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>an'san</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>mmmm</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ipbj</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>dan'dong</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ipq</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>rfq</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>kdm</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ipbj</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>qrw</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>mwyc</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈大350 +10, 绥(芬河)满(州里)250东
+绥满250西, 哈佳(木斯)250 /2</t>
+    <rPh sb="0" eb="1">
+      <t>kwg</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dd</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xev</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>awv</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>isk</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>iauj</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jfd</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xev</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>iauj</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>sghg</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>kwg</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>wffg</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ssss</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>adwr</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京沪380北, 京沪380南
+济郑350, 济青350
+济青250 /2, 济泰(安)250城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>iyj</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>udb</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>iyj</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>gef</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>iyj</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>gef</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>iyj</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dwiu</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>pv</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济青350 +10青银, 济青250 /2
+青荣(城)250, 青连200</t>
+    <rPh sb="0" eb="1">
+      <t>iyj</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gef</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>geqv</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>iyj</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gef</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>gef</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>aps</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fdn</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>gef</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>lpk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阜(阳)合350, 合福350
+郑合350, 合九(江)350
+合杭350, 合武250
+合宁250, 合新(沂)250 /2
+合六(安)250城际 /2
+合马(鞍山)250城际 /2
+合淮(北)250城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>wnbj</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>udb</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ia</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>syyt</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>gaic</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>usr</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>irh</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>uy</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>pv</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>cn</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>iwpv</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福厦350, 福厦250 /2
+厦深250, 赣厦200 +10渝厦</t>
+    <rPh sb="0" eb="1">
+      <t>pygl</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dduy</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dduy</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dduy</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ipw</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>gan'zhou</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>dduy</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>iwgj</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>xia'meng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合福350 +10京福, 甬福250
+福厦350, 福厦250 /2
+昌福200, 福平(潭)250城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>cej</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dduy</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>pydd</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>dduy</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>isj</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌赣350, 昌九(江)350
+沪昆350东, 沪昆350西
+昌九(江)250城际 /2, 昌景黄350 /2
+昌福200</t>
+    <rPh sb="0" eb="1">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gan'zhou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ia</t>
+    </rPh>
+    <rPh sb="16" eb="17">
       <t>iyjx</t>
     </rPh>
     <rPh sb="21" eb="22">
-      <t>iwgj</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>jxx</t>
+      <t>ai</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>iyjx</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>sghg</t>
     </rPh>
     <rPh sb="31" eb="32">
-      <t>jxx</t>
+      <t>jj</t>
     </rPh>
     <rPh sb="32" eb="33">
-      <t>ma</t>
+      <t>vt</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ia</t>
     </rPh>
     <rPh sb="39" eb="40">
       <t>fdbf</t>
     </rPh>
-    <rPh sb="45" eb="46">
-      <t>jx</t>
-    </rPh>
     <rPh sb="46" eb="47">
-      <t>dd</t>
+      <t>jj</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>jyi</t>
     </rPh>
     <rPh sb="48" eb="49">
-      <t>gj</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰新350, 兰宝250
-成兰200 +5兰广, 兰银250 +5京兰
-兰张(液)250 /2, 兰中250城际 /2</t>
-    <rPh sb="0" eb="1">
-      <t>uff</t>
+      <t>amw</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>pyg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包海350 +10, 西环200
+东环250</t>
+    <rPh sb="0" eb="1">
+      <t>qn</t>
     </rPh>
     <rPh sb="1" eb="2">
-      <t>usr</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>pgy</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ufyt</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>qve</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>xt</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>iyws</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>k</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>fdbf</t>
+      <t>itx</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>sghg</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ggi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ggi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>京兰250北, 京兰250南
-银西250, 银绥(德)200 +5青银</t>
+银西250, 银绥(德)200 +10青银</t>
     <rPh sb="0" eb="1">
       <t>yiu</t>
     </rPh>
@@ -2522,39 +2308,268 @@
     <rPh sb="25" eb="26">
       <t>tfl</t>
     </rPh>
-    <rPh sb="33" eb="34">
+    <rPh sb="34" eb="35">
       <t>geqv</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兰新350东, 兰新350西
-西(宁)成200</t>
+    <t>兰新350 +10, 乌昌(吉)250城际</t>
     <rPh sb="0" eb="1">
       <t>ufus</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fk</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵南350, 南广250
+南昆250, 南钦(州)250
+柳南250 +10呼南</t>
+    <rPh sb="0" eb="1">
+      <t>khgm</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jxx</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>qqw</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>sqyt</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ktu</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>fm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京兰350东 +10呼南, 京兰200西</t>
+    <rPh sb="0" eb="1">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>uff</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>ai</t>
     </rPh>
+    <rPh sb="10" eb="11">
+      <t>ktu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>sghg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京九350, 厦深250
+广深200城际 /2, 广深350
+深茂200, 穗莞深200城际 /2
+深港250</t>
+    <rPh sb="0" eb="1">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xia'shen'gao'tie</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yyip</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yyip</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ipad</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>mao'min</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ipw</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达州</t>
+    <rPh sb="0" eb="1">
+      <t>dpyt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包海350北, 包海350南
+成达万350东, 成达万350西</t>
+    <rPh sb="0" eb="1">
+      <t>qn</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>itx</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
     <rPh sb="8" eb="9">
-      <t>ufus</t>
+      <t>qn</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>itx</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dp</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dnv</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>dp</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>dnv</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>sghg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赣州</t>
+    <rPh sb="0" eb="1">
+      <t>gan'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长赣350, 赣厦200
+昌赣350, 赣深350</t>
+    <rPh sb="0" eb="1">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gan'zhou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gan'zhou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xia'meng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gan'zhou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>gan'zhou</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ipw</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上饶</t>
+    <rPh sb="0" eb="1">
+      <t>sang'rao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪昆350东, 沪昆350西
+合福350北, 合福350南</t>
+    <rPh sb="0" eb="1">
+      <t>iyjx</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>iyjx</t>
     </rPh>
     <rPh sb="13" eb="14">
       <t>sghg</t>
     </rPh>
     <rPh sb="15" eb="16">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>dn</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成渝350, 成达万350 +沪蓉5
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>fm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成渝350, 成达万350 +10沪蓉
 成昆350, 成贵250
 西成250, 西(宁)成200
 成灌200城际 /2, 成遂(宁)250 /2</t>
@@ -2570,71 +2585,311 @@
     <rPh sb="9" eb="10">
       <t>dnv</t>
     </rPh>
-    <rPh sb="15" eb="16">
+    <rPh sb="17" eb="18">
       <t>iyap</t>
     </rPh>
-    <rPh sb="19" eb="20">
+    <rPh sb="20" eb="21">
       <t>dn</t>
     </rPh>
+    <rPh sb="21" eb="22">
+      <t>jxx</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>khgm</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>sghg</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dnft</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>sghg</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>guan</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>uep</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ps</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰新350, 兰宝250
+成兰200 +10兰广, 兰银250 +10京兰
+兰张(液)250 /2, 兰中250城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>usr</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pgy</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ufyt</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>qve</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>xt</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>iyws</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>k</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合九350, 昌九350
+昌九250城际 /2, 武九250
+池(州)九250 /2, 麻九350
+九景(岗山)250 /2</t>
+    <rPh sb="0" eb="1">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jjvt</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>gaic</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ibn</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>yss</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>jy</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>mmq</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>mmm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京广350 +10, 贵广300 +10兰广
+南广250 +10广昆, 广汕(尾)350 /2
+广珠250城际, 广深350
+广深200城际 /2, 广清(远)200城际 /2
+穗莞深200城际 /2
+广佛肇(庆)200城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>yiyy</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>khgm</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yyyt</t>
+    </rPh>
     <rPh sb="20" eb="21">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>fmyy</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="33" eb="34">
       <t>jxx</t>
     </rPh>
-    <rPh sb="26" eb="27">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>khgm</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>dnft</t>
-    </rPh>
     <rPh sb="39" eb="40">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>dn</t>
+      <t>ntf</t>
     </rPh>
     <rPh sb="48" eb="49">
-      <t>dn</t>
+      <t>yyyt</t>
     </rPh>
     <rPh sb="49" eb="50">
-      <t>guan</t>
+      <t>gri</t>
     </rPh>
     <rPh sb="53" eb="54">
       <t>fdbf</t>
     </rPh>
-    <rPh sb="60" eb="61">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>uep</t>
+    <rPh sb="57" eb="58">
+      <t>yyip</t>
     </rPh>
     <rPh sb="63" eb="64">
-      <t>ps</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰新350 +5, 乌昌(吉)250城际</t>
-    <rPh sb="0" eb="1">
-      <t>ufus</t>
+      <t>yyip</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>yyai</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ige</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>fqp</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>tgjn</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>apf</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ipw</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>wxmm</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>zhao'qin</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ydi</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昆250 +10广昆, 沪昆350 +10
+渝昆350 +10, 昆曲(靖)250城际 /2
+昆大(理)200城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jxx</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yyyt</t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t>qng</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>jj</t>
+      <t>jxx</t>
     </rPh>
     <rPh sb="13" eb="14">
-      <t>fk</t>
-    </rPh>
-    <rPh sb="18" eb="19">
+      <t>iyjx</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>iwgj</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jxx</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>jxx</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ma</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>jx</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>dd</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>gj</t>
+    </rPh>
+    <rPh sb="56" eb="57">
       <t>fdbf</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2986,11 +3241,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3017,11 +3272,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2">
-        <f>40+43+40+40+40+40+17.5+12.5+15</f>
-        <v>288</v>
+        <f>45+48+45+45+45+45+17.5+12.5+15</f>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.2">
@@ -3029,11 +3284,11 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2">
-        <f>43+40+40+20+17.5+17.5+17.5+40</f>
-        <v>235.5</v>
+        <f>48+45+45+20+17.5+17.5+17.5+45</f>
+        <v>255.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.2">
@@ -3041,7 +3296,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2">
         <f>38+38+35+35+25+17.5+10+12.5</f>
@@ -3053,11 +3308,11 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2">
-        <f>35+25+20+35+35+20+40</f>
-        <v>210</v>
+        <f>35+25+20+35+35+20+45</f>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.2">
@@ -3065,7 +3320,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2">
         <f>35+35+25+35+15+12.5</f>
@@ -3077,521 +3332,569 @@
         <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2">
         <f>35+35+25+20+25</f>
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="108" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2">
         <f>35+35+35+35+35+35+35+25+12.5+10+12.5</f>
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2">
+        <f>35+35+35+35</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="2">
         <f>35+25+35+35+12.5+10+12.5+12.5</f>
         <v>177.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="2">
-        <f>40+20</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2">
+        <f>45+20</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
         <f>35+35+12.5+12.5</f>
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="2">
-        <f>40+25+25+12.5</f>
-        <v>102.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="2">
+        <f>45+25+25+12.5</f>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2">
-        <f>35+20</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="2">
+        <f>45+20</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="2">
-        <f>38+38+25+20+35+25+17.5+17.5</f>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="2">
+        <f>38+38+25+20+35+25+17.5+35</f>
+        <v>233.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="2">
-        <f>38+38+17.5+17.5+17.5+17.5</f>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2">
-        <f>38+38+17.5+17.5+17.5+17.5+12.5+12.5</f>
-        <v>171</v>
+        <f>38+38+17.5+17.5</f>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="54" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2">
+        <f>38+38+17.5+17.5+12.5+12.5</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2">
         <f>38+38+35+35+12.5+17.5</f>
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="2">
         <f>38+38+35+35+12.5+12.5</f>
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="2">
         <f>40+12.5+25+20</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="2">
-        <f>35+35+35+35+35+25+25+12.5</f>
-        <v>237.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2">
+        <f>35+35+35+35+35+25+25+12.5+12.5+12.5+12.5</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2">
         <f>35+35+35+35+17.5</f>
         <v>157.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2">
         <f>35+35+17.5+35+35+17.5+12.5+17.5</f>
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2">
         <f>35+25+12.5</f>
         <v>72.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="2">
-        <f>40+25+35+12.5+20+12.5</f>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="2">
+        <f>45+25+35+12.5+20+12.5</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="2">
-        <f>35+12.5+25+20</f>
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="2">
+        <f>35+12.5+25+30</f>
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2">
         <f>35+35+35+25+25+25+15+12.5</f>
         <v>207.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2">
         <f>35+35+35+35+35</f>
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="B29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2">
         <f>25+20+35+35+17.5</f>
         <v>132.5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2">
         <f>35+35+35+35+35+35+12.5+12.5</f>
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="108" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:3" ht="108" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="2">
-        <f>40+35+30+17.5+25+35+10+10+10+10</f>
-        <v>222.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C31" s="2">
-        <f>35+25+10+35+20+10</f>
-        <v>135</v>
+        <f>45+40+35+17.5+25+35+10+10+10+10</f>
+        <v>237.5</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="72" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="2">
+        <f>35+25+10+35+20+10+25</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="2">
         <f>30+30+25+25+10+25+25</f>
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="108" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:3" ht="108" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2">
         <f>35+35+35+35+10+10+10+10+10</f>
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="2">
+        <f>35+25+25+25+35</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="2">
-        <f>35+25+25+25+25</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="C36" s="2">
         <f>35+35+35+35+12.5+17.5+20</f>
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="2">
+        <f>35+35+35+35</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="2">
-        <f>35+35+12.5+25+12.5</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="B38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="2">
+        <f>35+35+12.5+25+12.5+35+12.5</f>
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="2">
+        <f>35+30+35+35</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="2">
+        <f>35+45+35+25+25+20+10+12.5</f>
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="2">
-        <f>35+40+35+25+25+20+10+12.5</f>
-        <v>202.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="C41" s="2">
+        <f>35+35+35+35</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="2">
+      <c r="B42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="2">
         <f>35+35+25+25+35</f>
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="43" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="B43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="2">
         <f>20+25+35+35+30+35+10</f>
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="44" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="2">
-        <f>30+40+40+12.5+10</f>
-        <v>132.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="B44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="2">
+        <f>35+45+45+12.5+10</f>
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="2">
-        <f>40+20+25</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="B46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="2">
+        <f>45+20+25</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="B47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="2">
         <f>35+35+35+35+35+35+25+25+12.5</f>
         <v>272.5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="48" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="2">
-        <f>35+25+25+30+12.5+12.5</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="B48" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="2">
+        <f>35+25+30+35+12.5+12.5</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="2">
-        <f>25+25+25+25</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="B49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="2">
+        <f>25+25+25+30</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="2">
+      <c r="B50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="2">
         <f>35+35+20</f>
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="2">
-        <f>40+25</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="2">
+        <f>45+25</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3602,10 +3905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B47"/>
+      <selection sqref="A1:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3620,38 +3923,38 @@
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <f>45+48+45+45+45+45+17.5+12.5+15</f>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <f>35+35+35+35+35+35+35+25+12.5+10+12.5</f>
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <f>40+43+40+40+40+40+17.5+12.5+15</f>
-        <v>288</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <f>35+35+35+35+35+25+25+12.5+12.5+12.5+12.5</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <f>35+35+35+35+35+35+25+25+12.5</f>
         <v>272.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
-        <f>35+35+35+35+35+25+25+12.5</f>
-        <v>237.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -3659,26 +3962,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <f>43+40+40+20+17.5+17.5+17.5+40</f>
-        <v>235.5</v>
+        <f>48+45+45+20+17.5+17.5+17.5+45</f>
+        <v>255.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <f>45+40+35+17.5+25+35+10+10+10+10</f>
+        <v>237.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <f>35+35+35+35+35+35+12.5+12.5</f>
         <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <f>40+35+30+17.5+25+35+10+10+10+10</f>
-        <v>222.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -3686,26 +3989,26 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <f>38+38+25+20+35+25+17.5+17.5</f>
-        <v>216</v>
+        <f>38+38+25+20+35+25+17.5+35</f>
+        <v>233.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <f>35+25+20+35+35+20+45</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <f>38+38+35+35+25+17.5+10+12.5</f>
         <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
-        <f>35+25+20+35+35+20+40</f>
-        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -3719,20 +4022,20 @@
     </row>
     <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <f>35+45+35+25+25+20+10+12.5</f>
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <f>35+35+17.5+35+35+17.5+12.5+17.5</f>
         <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <f>35+40+35+25+25+20+10+12.5</f>
-        <v>202.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -3791,65 +4094,65 @@
     </row>
     <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
-        <f>38+38+17.5+17.5+17.5+17.5+12.5+12.5</f>
+        <f>38+38+35+35+12.5+12.5</f>
         <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2">
-        <f>38+38+35+35+12.5+12.5</f>
-        <v>171</v>
+        <f>30+30+25+25+10+25+25</f>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2">
-        <f>30+30+25+25+10+25+25</f>
-        <v>170</v>
+        <f>35+35+12.5+25+12.5+35+12.5</f>
+        <v>167.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
+        <f>35+25+10+35+20+10+25</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2">
         <f>35+35+25+35+15+12.5</f>
         <v>157.5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="2">
         <f>35+35+35+35+17.5</f>
         <v>157.5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B27" s="2">
         <f>35+35+25+25+35</f>
         <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="2">
-        <f>38+38+17.5+17.5+17.5+17.5</f>
-        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -3857,182 +4160,218 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <f>40+25+35+12.5+20+12.5</f>
-        <v>145</v>
+        <f>45+25+35+12.5+20+12.5</f>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2">
+        <f>35+25+30+35+12.5+12.5</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2">
+        <f>35+45+45+12.5+10</f>
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2">
+        <f>35+25+25+25+35</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B32" s="2">
         <f>35+35+25+20+25</f>
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="2">
-        <f>35+25+25+30+12.5+12.5</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="2">
-        <f>35+25+10+35+20+10</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2">
-        <f>35+25+25+25+25</f>
-        <v>135</v>
-      </c>
-    </row>
     <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="2">
+        <f>35+35+35+35</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="2">
+        <f>35+35+35+35</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="2">
+        <f>35+35+35+35</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="2">
+        <f>38+38+17.5+17.5+12.5+12.5</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="2">
+        <f>35+30+35+35</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B38" s="2">
         <f>25+20+35+35+17.5</f>
         <v>132.5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2">
-        <f>30+40+40+12.5+10</f>
-        <v>132.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="2">
-        <f>35+35+12.5+25+12.5</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2">
+        <f>38+38+17.5+17.5</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="2">
-        <f>40+25+25+12.5</f>
+      <c r="B40" s="2">
+        <f>45+25+25+12.5</f>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2">
+        <f>25+25+25+30</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <f>35+12.5+25+30</f>
         <v>102.5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2">
-        <f>25+25+25+25</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B43" s="2">
         <f>40+12.5+25+20</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B44" s="2">
         <f>35+35+12.5+12.5</f>
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="2">
-        <f>35+12.5+25+20</f>
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2">
+        <f>45+20+25</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B46" s="2">
         <f>35+35+20</f>
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2">
-        <f>40+20+25</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B47" s="2">
         <f>35+25+12.5</f>
         <v>72.5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="2">
-        <f>40+25</f>
+      <c r="B48" s="2">
+        <f>45+25</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="2">
+        <f>45+20</f>
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="2">
-        <f>40+20</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="2">
-        <f>35+20</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="B50" s="2">
+        <f>45+20</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B51" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B47">
+  <sortState ref="A2:B51">
     <sortCondition descending="1" ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/railway/crh.xlsx
+++ b/railway/crh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="40240" windowHeight="32380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
   <si>
     <t>北京</t>
     <rPh sb="0" eb="1">
@@ -1429,118 +1429,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>京沪380北, 京沪380南
-沪宁350北 /2, 沪宁350南 /2</t>
-    <rPh sb="0" eb="1">
-      <t>yiiy</t>
+    <t>商丘</t>
+    <rPh sb="0" eb="1">
+      <t>shang'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京九350北, 京九350南
+连新350东, 连新350西</t>
+    <rPh sb="0" eb="1">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>vt</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>ux</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>iyps</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京沪380北, 京沪380南
-合宁250, 宁启(东)200
-宁杭350, 宁安(庆)250
-沪宁350城际 /2, 北沿江350</t>
-    <rPh sb="0" eb="1">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ynk</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>sym</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>pv</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>yd</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>imk</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商丘</t>
-    <rPh sb="0" eb="1">
-      <t>shang'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京九350北, 京九350南
-连新350东, 连新350西</t>
-    <rPh sb="0" eb="1">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
       <t>yiu</t>
     </rPh>
     <rPh sb="9" eb="10">
@@ -1566,76 +1473,6 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>sghg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京沪380 +10, 京沪350二线 +10
-沪昆350 +10, 沪通200
-沪杭350城际 /2, 沪宁350城际 /2
-沪苏湖350城际 /2, 北沿江350 +10</t>
-    <rPh sb="0" eb="1">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>fg</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>xg</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>jxx</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>cep</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>syy</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>alw</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ide</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>imia</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2891,6 +2728,408 @@
     </rPh>
     <rPh sb="56" eb="57">
       <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通</t>
+    <rPh sb="0" eb="1">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>cep</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟台</t>
+    <rPh sb="0" eb="1">
+      <t>olck</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐山</t>
+    <rPh sb="0" eb="1">
+      <t>yvmm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉州</t>
+    <rPh sb="0" eb="1">
+      <t>riyt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州</t>
+    <rPh sb="0" eb="1">
+      <t>ipyt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>津沈250北, 津沈250南
+京唐250城际 /2
+唐承(德)250城际 /2
+唐曹(妃甸)200城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>ivfh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ipbj</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ivfh</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ipq</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yvmm</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yvhk</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>bd</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>tfl</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>yvh</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>cao'fei'dian</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京沪380北, 京沪380南
+合宁250, 宁启(东)200 /2
+宁杭350, 宁安(庆)250
+沪宁350城际 /2, 北沿江350</t>
+    <rPh sb="0" eb="1">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ynk</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>sym</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>pv</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>yd</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>imk</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京沪380 +10, 京沪350二线 +10
+沪昆350 +10, 沪通200 /2
+沪杭350城际 /2, 沪宁350城际 /2
+沪苏湖350城际 /2, 北沿江350 +10</t>
+    <rPh sb="0" eb="1">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fg</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xg</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jxx</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>cep</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>syy</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>alw</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ide</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>imia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北沿江350东, 北沿江350西
+宁启200 /2, 沪通200 /2
+苏通250 /2, 连(云港)启(东)250</t>
+    <rPh sb="0" eb="1">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>imia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>imia</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>sghg</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ynk</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>cep</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>alw</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>cep</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>lfia</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ynk</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">京沪380北, 京沪380南
+沪宁350北 /2, 沪宁350南 /2
+宁常250城际 /2, </t>
+    <rPh sb="0" eb="1">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>iyps</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ipkh</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京沪380北, 京沪380南
+沪宁350北 /2, 沪宁350南 /2
+盐锡250城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>iyps</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>fhfd</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>qjq</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福厦350北, 福厦250北 /2
+福厦350南, 福厦250南 /2</t>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>fm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青烟250, 潍(坊)烟250</t>
+    <rPh sb="0" eb="1">
+      <t>gef</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>old</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei'fang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>old</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通地级市</t>
+    <rPh sb="0" eb="1">
+      <t>uoce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fb</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xe</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ymhj</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2941,7 +3180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2949,11 +3188,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2963,6 +3217,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3241,11 +3507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3257,646 +3523,689 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="5">
         <f>45+48+45+45+45+45+17.5+12.5+15</f>
         <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="2">
-        <f>48+45+45+20+17.5+17.5+17.5+45</f>
-        <v>255.5</v>
+      <c r="B3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="5">
+        <f>48+45+45+10+17.5+17.5+17.5+45</f>
+        <v>245.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <f>38+38+35+35+25+17.5+10+12.5</f>
         <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="5">
         <f>35+25+20+35+35+20+45</f>
         <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <f>35+35+25+35+15+12.5</f>
         <v>157.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="5">
+        <f>25+25+12.5+12.5+10</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="5">
         <f>35+35+25+20+25</f>
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="5">
         <f>35+35+35+35+35+35+35+25+12.5+10+12.5</f>
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="5">
+        <f>35+25+35+35+12.5+10+12.5+12.5</f>
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="C11" s="5">
+        <f>45+20</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5">
+        <f>35+35+12.5+12.5</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="5">
+        <f>45+25+25+12.5</f>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="5">
+        <f>45+20</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="5">
+        <f>38+38+25+10+35+25+17.5+35</f>
+        <v>223.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="5">
+        <f>38+38+17.5+17.5+12.5</f>
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="5">
+        <f>38+38+17.5+17.5+12.5+12.5</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5">
+        <f>38+38+35+35+12.5+17.5</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="5">
+        <f>35+35+10+10+12.5+25</f>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="5">
+        <f>38+38+17.5+17.5+12.5</f>
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="5">
+        <f>38+38+35+35+12.5+12.5</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="5">
+        <f>40+12.5+25+20</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="5">
+        <f>25+25</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="5">
+        <f>35+35+35+35+35+25+25+12.5+12.5+12.5+12.5</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5">
+        <f>35+35+17.5+35+35+17.5+12.5+17.5</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="5">
+        <f>35+25+12.5</f>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="5">
+        <f>45+25+35+12.5+20+12.5</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="5">
+        <f>35+12.5+25+30</f>
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="5">
+        <f>35+25+35+25</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="5">
+        <f>35+35+35+25+25+25+15+12.5</f>
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="5">
+        <f>35+35+35+35+35+35+12.5+12.5</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="108" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="5">
+        <f>45+40+35+17.5+25+35+10+10+10+10</f>
+        <v>237.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="5">
+        <f>35+25+10+35+20+10+25</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="5">
+        <f>30+30+25+25+10+25+25</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="108" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="5">
+        <f>35+35+35+35+10+10+10+10+10</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="5">
+        <f>35+25+25+25+35</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="5">
+        <f>35+35+35+35+12.5+17.5+20</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="5">
+        <f>35+45+35+25+25+20+10+12.5</f>
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="5">
+        <f>20+25+35+35+30+35+10</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="5">
+        <f>35+45+45+12.5+10</f>
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="5">
+        <f>45+20+25</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="5">
+        <f>35+35+35+35+35+35+25+25+12.5</f>
+        <v>272.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="5">
+        <f>35+25+30+35+12.5+12.5</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="5">
+        <f>25+25+25+30</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="5">
+        <f>35+35+20</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="5">
+        <f>45+25</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="5">
         <f>35+35+35+35</f>
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="2">
-        <f>35+25+35+35+12.5+10+12.5+12.5</f>
-        <v>177.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="2">
-        <f>45+20</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="2">
-        <f>35+35+12.5+12.5</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="2">
-        <f>45+25+25+12.5</f>
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="2">
-        <f>45+20</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="2">
-        <f>38+38+25+20+35+25+17.5+35</f>
-        <v>233.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="2">
-        <f>38+38+17.5+17.5</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="2">
-        <f>38+38+17.5+17.5+12.5+12.5</f>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="2">
-        <f>38+38+35+35+12.5+17.5</f>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="2">
-        <f>38+38+35+35+12.5+12.5</f>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="2">
-        <f>40+12.5+25+20</f>
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="126" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="2">
-        <f>35+35+35+35+35+25+25+12.5+12.5+12.5+12.5</f>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="50" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B50" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C50" s="5">
         <f>35+35+35+35+17.5</f>
         <v>157.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="2">
-        <f>35+35+17.5+35+35+17.5+12.5+17.5</f>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="2">
-        <f>35+25+12.5</f>
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="2">
-        <f>45+25+35+12.5+20+12.5</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="2">
-        <f>35+12.5+25+30</f>
-        <v>102.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="2">
-        <f>35+35+35+25+25+25+15+12.5</f>
-        <v>207.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="51" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C51" s="5">
         <f>35+35+35+35+35</f>
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="52" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B52" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C52" s="5">
         <f>25+20+35+35+17.5</f>
         <v>132.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="2">
-        <f>35+35+35+35+35+35+12.5+12.5</f>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="108" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="2">
-        <f>45+40+35+17.5+25+35+10+10+10+10</f>
-        <v>237.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="2">
-        <f>35+25+10+35+20+10+25</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="2">
-        <f>30+30+25+25+10+25+25</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="108" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="2">
-        <f>35+35+35+35+10+10+10+10+10</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="2">
-        <f>35+25+25+25+35</f>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="2">
-        <f>35+35+35+35+12.5+17.5+20</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="2">
+    <row r="53" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="5">
         <f>35+35+35+35</f>
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="54" spans="1:3" ht="72" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="2">
+      <c r="B54" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="5">
         <f>35+35+12.5+25+12.5+35+12.5</f>
         <v>167.5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="2">
+    <row r="55" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="5">
         <f>35+30+35+35</f>
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="2">
-        <f>35+45+35+25+25+20+10+12.5</f>
-        <v>207.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="2">
+    <row r="56" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="5">
         <f>35+35+35+35</f>
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="57" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C57" s="5">
         <f>35+35+25+25+35</f>
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="2">
-        <f>20+25+35+35+30+35+10</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="2">
-        <f>35+45+45+12.5+10</f>
-        <v>147.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="2">
-        <f>45+20+25</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="2">
-        <f>35+35+35+35+35+35+25+25+12.5</f>
-        <v>272.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="2">
-        <f>35+25+30+35+12.5+12.5</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="2">
-        <f>25+25+25+30</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="2">
-        <f>35+35+20</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="2">
-        <f>45+25</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="3"/>
-    </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="3"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A48:C48"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3905,473 +4214,518 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B51"/>
+      <selection sqref="A1:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <f>45+48+45+45+45+45+17.5+12.5+15</f>
         <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <f>35+35+35+35+35+35+35+25+12.5+10+12.5</f>
         <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <f>35+35+35+35+35+25+25+12.5+12.5+12.5+12.5</f>
         <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <f>35+35+35+35+35+35+25+25+12.5</f>
         <v>272.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <f>48+45+45+20+17.5+17.5+17.5+45</f>
-        <v>255.5</v>
+      <c r="B6" s="5">
+        <f>48+45+45+10+17.5+17.5+17.5+45</f>
+        <v>245.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <f>45+40+35+17.5+25+35+10+10+10+10</f>
         <v>237.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <f>35+35+35+35+35+35+12.5+12.5</f>
         <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
-        <f>38+38+25+20+35+25+17.5+35</f>
-        <v>233.5</v>
+      <c r="B9" s="5">
+        <f>38+38+25+10+35+25+17.5+35</f>
+        <v>223.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <f>35+25+20+35+35+20+45</f>
         <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <f>38+38+35+35+25+17.5+10+12.5</f>
         <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <f>35+35+35+25+25+25+15+12.5</f>
         <v>207.5</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <f>35+45+35+25+25+20+10+12.5</f>
         <v>207.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <f>35+35+17.5+35+35+17.5+12.5+17.5</f>
         <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <f>35+35+35+35+10+10+10+10+10</f>
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <f>35+35+35+35+12.5+17.5+20</f>
         <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <f>20+25+35+35+30+35+10</f>
         <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <f>35+25+35+35+12.5+10+12.5+12.5</f>
         <v>177.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="5">
         <f>38+38+35+35+12.5+17.5</f>
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <f>35+35+35+35+35</f>
         <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="5">
         <f>38+38+35+35+12.5+12.5</f>
         <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="5">
         <f>30+30+25+25+10+25+25</f>
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="5">
         <f>35+35+12.5+25+12.5+35+12.5</f>
         <v>167.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="5">
         <f>35+25+10+35+20+10+25</f>
         <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="5">
         <f>35+35+25+35+15+12.5</f>
         <v>157.5</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="5">
         <f>35+35+35+35+17.5</f>
         <v>157.5</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="5">
         <f>35+35+25+25+35</f>
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="5">
         <f>45+25+35+12.5+20+12.5</f>
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="5">
         <f>35+25+30+35+12.5+12.5</f>
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="5">
         <f>35+45+45+12.5+10</f>
         <v>147.5</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="5">
         <f>35+25+25+25+35</f>
         <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="5">
         <f>35+35+25+20+25</f>
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="2">
+      <c r="A33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="5">
         <f>35+35+35+35</f>
         <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="2">
+      <c r="A34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="5">
         <f>35+35+35+35</f>
         <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="A35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="5">
         <f>35+35+35+35</f>
         <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="5">
         <f>38+38+17.5+17.5+12.5+12.5</f>
         <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="A37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="5">
         <f>35+30+35+35</f>
         <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="5">
         <f>25+20+35+35+17.5</f>
         <v>132.5</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="5">
+        <f>35+35+10+10+12.5+25</f>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="2">
-        <f>38+38+17.5+17.5</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="5">
+        <f>38+38+17.5+17.5+12.5</f>
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="5">
+        <f>38+38+17.5+17.5+12.5</f>
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="5">
+        <f>35+25+35+25</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B43" s="5">
         <f>45+25+25+12.5</f>
         <v>107.5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B44" s="5">
         <f>25+25+25+30</f>
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B45" s="5">
         <f>35+12.5+25+30</f>
         <v>102.5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B46" s="5">
         <f>40+12.5+25+20</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B47" s="5">
         <f>35+35+12.5+12.5</f>
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B48" s="5">
         <f>45+20+25</f>
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B49" s="5">
         <f>35+35+20</f>
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="5">
+        <f>25+25+12.5+12.5+10</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B51" s="5">
         <f>35+25+12.5</f>
         <v>72.5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B52" s="5">
         <f>45+25</f>
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B53" s="5">
         <f>45+20</f>
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B54" s="5">
         <f>45+20</f>
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="5">
+        <f>25+25</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B56" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B51">
+  <sortState ref="A2:B57">
     <sortCondition descending="1" ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/railway/crh.xlsx
+++ b/railway/crh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="40240" windowHeight="32380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1840,7 +1840,1204 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阜(阳)合350, 合福350
+    <t>福厦350, 福厦250 /2
+厦深250, 赣厦200 +10渝厦</t>
+    <rPh sb="0" eb="1">
+      <t>pygl</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dduy</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dduy</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dduy</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ipw</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>gan'zhou</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>dduy</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>iwgj</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>xia'meng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合福350 +10京福, 甬福250
+福厦350, 福厦250 /2
+昌福200, 福平(潭)250城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>cej</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dduy</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>pydd</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>dduy</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>isj</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌赣350, 昌九(江)350
+沪昆350东, 沪昆350西
+昌九(江)250城际 /2, 昌景黄350 /2
+昌福200</t>
+    <rPh sb="0" eb="1">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gan'zhou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ia</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>iyjx</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>iyjx</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>sghg</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ia</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>jyi</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>amw</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>pyg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包海350 +10, 西环200
+东环250</t>
+    <rPh sb="0" eb="1">
+      <t>qn</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>itx</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>sghg</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ggi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ggi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京兰250北, 京兰250南
+银西250, 银绥(德)200 +10青银</t>
+    <rPh sb="0" eb="1">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qve</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>sghg</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>qve</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xev</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>tfl</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>geqv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰新350 +10, 乌昌(吉)250城际</t>
+    <rPh sb="0" eb="1">
+      <t>ufus</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fk</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵南350, 南广250
+南昆250, 南钦(州)250
+柳南250 +10呼南</t>
+    <rPh sb="0" eb="1">
+      <t>khgm</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jxx</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>qqw</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>sqyt</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ktu</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>fm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京兰350东 +10呼南, 京兰200西</t>
+    <rPh sb="0" eb="1">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ktu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>sghg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京九350, 厦深250
+广深200城际 /2, 广深350
+深茂200, 穗莞深200城际 /2
+深港250</t>
+    <rPh sb="0" eb="1">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xia'shen'gao'tie</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yyip</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yyip</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ipad</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>mao'min</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ipw</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达州</t>
+    <rPh sb="0" eb="1">
+      <t>dpyt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包海350北, 包海350南
+成达万350东, 成达万350西</t>
+    <rPh sb="0" eb="1">
+      <t>qn</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>itx</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qn</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>itx</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dp</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dnv</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>dp</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>dnv</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>sghg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赣州</t>
+    <rPh sb="0" eb="1">
+      <t>gan'zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长赣350, 赣厦200
+昌赣350, 赣深350</t>
+    <rPh sb="0" eb="1">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gan'zhou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gan'zhou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xia'meng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gan'zhou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>gan'zhou</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ipw</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上饶</t>
+    <rPh sb="0" eb="1">
+      <t>sang'rao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪昆350东, 沪昆350西
+合福350北, 合福350南</t>
+    <rPh sb="0" eb="1">
+      <t>iyjx</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>iyjx</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>sghg</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>pyg</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>fm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成渝350, 成达万350 +10沪蓉
+成昆350, 成贵250
+西成250, 西(宁)成200
+成灌200城际 /2, 成遂(宁)250 /2</t>
+    <rPh sb="0" eb="1">
+      <t>dniw</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dp</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dnv</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>iyap</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>jxx</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>khgm</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>sghg</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dnft</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>sghg</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>guan</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>uep</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ps</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰新350, 兰宝250
+成兰200 +10兰广, 兰银250 +10京兰
+兰张(液)250 /2, 兰中250城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>usr</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pgy</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dn</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ufyt</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>qve</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>xt</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>iyws</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>k</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合九350, 昌九350
+昌九250城际 /2, 武九250
+池(州)九250 /2, 麻九350
+九景(岗山)250 /2</t>
+    <rPh sb="0" eb="1">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jj</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jjvt</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>gaic</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ibn</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>yss</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>vt</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>jy</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>mmq</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>mmm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京广350 +10, 贵广300 +10兰广
+南广250 +10广昆, 广汕(尾)350 /2
+广珠250城际, 广深350
+广深200城际 /2, 广清(远)200城际 /2
+穗莞深200城际 /2
+广佛肇(庆)200城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>yiyy</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>khgm</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>uff</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>fmyy</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>jxx</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ntf</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>gri</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>yyip</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>yyip</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>yyai</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ige</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>fqp</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>tgjn</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>apf</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ipw</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>wxmm</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>zhao'qin</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ydi</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昆250 +10广昆, 沪昆350 +10
+渝昆350 +10, 昆曲(靖)250城际 /2
+昆大(理)200城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jxx</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yyyt</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jxx</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>iyjx</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>iwgj</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jxx</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>jxx</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ma</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>jx</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>dd</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>gj</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通</t>
+    <rPh sb="0" eb="1">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>cep</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟台</t>
+    <rPh sb="0" eb="1">
+      <t>olck</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐山</t>
+    <rPh sb="0" eb="1">
+      <t>yvmm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉州</t>
+    <rPh sb="0" eb="1">
+      <t>riyt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州</t>
+    <rPh sb="0" eb="1">
+      <t>ipyt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>津沈250北, 津沈250南
+京唐250城际 /2
+唐承(德)250城际 /2
+唐曹(妃甸)200城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>ivfh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ipbj</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ivfh</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ipq</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yvmm</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yvhk</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>bd</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>tfl</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>yvh</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>cao'fei'dian</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京沪380北, 京沪380南
+合宁250, 宁启(东)200 /2
+宁杭350, 宁安(庆)250
+沪宁350城际 /2, 北沿江350</t>
+    <rPh sb="0" eb="1">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wgk</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ynk</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>sym</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>pv</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>yd</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>imk</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京沪380 +10, 京沪350二线 +10
+沪昆350 +10, 沪通200 /2
+沪杭350城际 /2, 沪宁350城际 /2
+沪苏湖350城际 /2, 北沿江350 +10</t>
+    <rPh sb="0" eb="1">
+      <t>yiu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fg</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xg</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jxx</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>cep</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>syy</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>alw</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ide</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>fdbf</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>imia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北沿江350东, 北沿江350西
+宁启200 /2, 沪通200 /2
+苏通250 /2, 连(云港)启(东)250</t>
+    <rPh sb="0" eb="1">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>imia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>imia</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>sghg</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ynk</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>iyn</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>cep</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>alw</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>cep</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>lfia</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ynk</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">京沪380北, 京沪380南
+沪宁350北 /2, 沪宁350南 /2
+宁常250城际 /2, </t>
+    <rPh sb="0" eb="1">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>iyps</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ps</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ipkh</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京沪380北, 京沪380南
+沪宁350北 /2, 沪宁350南 /2
+盐锡250城际 /2</t>
+    <rPh sb="0" eb="1">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yiiy</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>iyps</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>fhfd</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>qjq</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>fdbf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福厦350北, 福厦250北 /2
+福厦350南, 福厦250南 /2</t>
+    <rPh sb="5" eb="6">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ux</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>fm</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>fm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青烟250, 潍(坊)烟250</t>
+    <rPh sb="0" eb="1">
+      <t>gef</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>old</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei'fang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>old</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通地级市</t>
+    <rPh sb="0" eb="1">
+      <t>uoce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fb</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xe</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ymhj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚌(埠)合350, 合福350
 郑合350, 合九(江)350
 合杭350, 合武250
 合宁250, 合新(沂)250 /2
@@ -1848,7 +3045,7 @@
 合马(鞍山)250城际 /2
 合淮(北)250城际 /2</t>
     <rPh sb="0" eb="1">
-      <t>wnbj</t>
+      <t>ben'bu</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>wgk</t>
@@ -1933,1203 +3130,6 @@
     </rPh>
     <rPh sb="101" eb="102">
       <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福厦350, 福厦250 /2
-厦深250, 赣厦200 +10渝厦</t>
-    <rPh sb="0" eb="1">
-      <t>pygl</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>dduy</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dduy</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>dduy</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ipw</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>gan'zhou</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>dduy</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>iwgj</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>xia'meng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合福350 +10京福, 甬福250
-福厦350, 福厦250 /2
-昌福200, 福平(潭)250城际 /2</t>
-    <rPh sb="0" eb="1">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>cej</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>dduy</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>pydd</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>dduy</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>gu</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>isj</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昌赣350, 昌九(江)350
-沪昆350东, 沪昆350西
-昌九(江)250城际 /2, 昌景黄350 /2
-昌福200</t>
-    <rPh sb="0" eb="1">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>gan'zhou</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ia</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>iyjx</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>iyjx</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ia</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>jyi</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>amw</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>pyg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包海350 +10, 西环200
-东环250</t>
-    <rPh sb="0" eb="1">
-      <t>qn</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>itx</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ggi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ggi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京兰250北, 京兰250南
-银西250, 银绥(德)200 +10青银</t>
-    <rPh sb="0" eb="1">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>qve</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>qve</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>xev</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>tfl</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>geqv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰新350 +10, 乌昌(吉)250城际</t>
-    <rPh sb="0" eb="1">
-      <t>ufus</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>qng</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>fk</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵南350, 南广250
-南昆250, 南钦(州)250
-柳南250 +10呼南</t>
-    <rPh sb="0" eb="1">
-      <t>khgm</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>jxx</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>qqw</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>sqyt</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ktu</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京兰350东 +10呼南, 京兰200西</t>
-    <rPh sb="0" eb="1">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ktu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>sghg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京九350, 厦深250
-广深200城际 /2, 广深350
-深茂200, 穗莞深200城际 /2
-深港250</t>
-    <rPh sb="0" eb="1">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xia'shen'gao'tie</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>yyip</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yyip</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ipad</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>mao'min</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ipw</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达州</t>
-    <rPh sb="0" eb="1">
-      <t>dpyt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包海350北, 包海350南
-成达万350东, 成达万350西</t>
-    <rPh sb="0" eb="1">
-      <t>qn</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>itx</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>qn</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>itx</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>dp</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>dnv</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>dp</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>dnv</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>sghg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赣州</t>
-    <rPh sb="0" eb="1">
-      <t>gan'zhou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长赣350, 赣厦200
-昌赣350, 赣深350</t>
-    <rPh sb="0" eb="1">
-      <t>ta</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>gan'zhou</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>gan'zhou</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xia'meng</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>gan'zhou</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>gan'zhou</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ipw</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上饶</t>
-    <rPh sb="0" eb="1">
-      <t>sang'rao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沪昆350东, 沪昆350西
-合福350北, 合福350南</t>
-    <rPh sb="0" eb="1">
-      <t>iyjx</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>iyjx</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成渝350, 成达万350 +10沪蓉
-成昆350, 成贵250
-西成250, 西(宁)成200
-成灌200城际 /2, 成遂(宁)250 /2</t>
-    <rPh sb="0" eb="1">
-      <t>dniw</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dp</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>dnv</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>iyap</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>jxx</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>khgm</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>dnft</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>guan</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>uep</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ps</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰新350, 兰宝250
-成兰200 +10兰广, 兰银250 +10京兰
-兰张(液)250 /2, 兰中250城际 /2</t>
-    <rPh sb="0" eb="1">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>usr</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>pgy</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ufyt</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>qve</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>xt</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>iyws</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>k</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合九350, 昌九350
-昌九250城际 /2, 武九250
-池(州)九250 /2, 麻九350
-九景(岗山)250 /2</t>
-    <rPh sb="0" eb="1">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>jjvt</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>gaic</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ibn</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>yss</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>jy</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>mmq</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>mmm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京广350 +10, 贵广300 +10兰广
-南广250 +10广昆, 广汕(尾)350 /2
-广珠250城际, 广深350
-广深200城际 /2, 广清(远)200城际 /2
-穗莞深200城际 /2
-广佛肇(庆)200城际 /2</t>
-    <rPh sb="0" eb="1">
-      <t>yiyy</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>khgm</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>uff</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>fmyy</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>jxx</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ntf</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>gri</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>yyip</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>yyip</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>yyai</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ige</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>fqp</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>tgjn</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>apf</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>ipw</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>wxmm</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>zhao'qin</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>ydi</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南昆250 +10广昆, 沪昆350 +10
-渝昆350 +10, 昆曲(靖)250城际 /2
-昆大(理)200城际 /2</t>
-    <rPh sb="0" eb="1">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jxx</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yyyt</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>jxx</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>iyjx</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>iwgj</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>jxx</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>jxx</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ma</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>jx</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>dd</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>gj</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南通</t>
-    <rPh sb="0" eb="1">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>cep</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟台</t>
-    <rPh sb="0" eb="1">
-      <t>olck</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐山</t>
-    <rPh sb="0" eb="1">
-      <t>yvmm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泉州</t>
-    <rPh sb="0" eb="1">
-      <t>riyt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常州</t>
-    <rPh sb="0" eb="1">
-      <t>ipyt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>津沈250北, 津沈250南
-京唐250城际 /2
-唐承(德)250城际 /2
-唐曹(妃甸)200城际 /2</t>
-    <rPh sb="0" eb="1">
-      <t>ivfh</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ipbj</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ivfh</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ipq</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>yvmm</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>yvhk</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>bd</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>tfl</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>yvh</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>cao'fei'dian</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京沪380北, 京沪380南
-合宁250, 宁启(东)200 /2
-宁杭350, 宁安(庆)250
-沪宁350城际 /2, 北沿江350</t>
-    <rPh sb="0" eb="1">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ynk</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>sym</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>pv</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>yd</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>imk</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京沪380 +10, 京沪350二线 +10
-沪昆350 +10, 沪通200 /2
-沪杭350城际 /2, 沪宁350城际 /2
-沪苏湖350城际 /2, 北沿江350 +10</t>
-    <rPh sb="0" eb="1">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>fg</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>xg</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>jxx</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>cep</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>syy</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>alw</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ide</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>imia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北沿江350东, 北沿江350西
-宁启200 /2, 沪通200 /2
-苏通250 /2, 连(云港)启(东)250</t>
-    <rPh sb="0" eb="1">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>imia</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>imia</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ynk</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>iyn</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>cep</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>alw</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>cep</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>lfia</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ynk</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">京沪380北, 京沪380南
-沪宁350北 /2, 沪宁350南 /2
-宁常250城际 /2, </t>
-    <rPh sb="0" eb="1">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>iyps</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ps</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ipkh</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京沪380北, 京沪380南
-沪宁350北 /2, 沪宁350南 /2
-盐锡250城际 /2</t>
-    <rPh sb="0" eb="1">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yiiy</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>iyps</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>fhfd</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>qjq</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福厦350北, 福厦250北 /2
-福厦350南, 福厦250南 /2</t>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青烟250, 潍(坊)烟250</t>
-    <rPh sb="0" eb="1">
-      <t>gef</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>old</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wei'fang</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>old</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通地级市</t>
-    <rPh sb="0" eb="1">
-      <t>uoce</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fb</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xe</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ymhj</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3510,8 +3510,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3550,7 +3549,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="5">
         <f>48+45+45+10+17.5+17.5+17.5+45</f>
@@ -3595,10 +3594,10 @@
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="5">
         <f>25+25+12.5+12.5+10</f>
@@ -3682,7 +3681,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="5">
         <f>45+20</f>
@@ -3694,7 +3693,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="5">
         <f>38+38+25+10+35+25+17.5+35</f>
@@ -3706,7 +3705,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="5">
         <f>38+38+17.5+17.5+12.5</f>
@@ -3739,10 +3738,10 @@
     </row>
     <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="5">
         <f>35+35+10+10+12.5+25</f>
@@ -3751,10 +3750,10 @@
     </row>
     <row r="20" spans="1:3" ht="54" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="5">
         <f>38+38+17.5+17.5+12.5</f>
@@ -3787,10 +3786,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="5">
         <f>25+25</f>
@@ -3802,7 +3801,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C24" s="5">
         <f>35+35+35+35+35+25+25+12.5+12.5+12.5+12.5</f>
@@ -3838,7 +3837,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="5">
         <f>45+25+35+12.5+20+12.5</f>
@@ -3850,7 +3849,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="5">
         <f>35+12.5+25+30</f>
@@ -3859,10 +3858,10 @@
     </row>
     <row r="29" spans="1:3" ht="36" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="5">
         <f>35+25+35+25</f>
@@ -3898,7 +3897,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="5">
         <f>45+40+35+17.5+25+35+10+10+10+10</f>
@@ -3910,7 +3909,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="5">
         <f>35+25+10+35+20+10+25</f>
@@ -3946,7 +3945,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="5">
         <f>35+25+25+25+35</f>
@@ -3958,7 +3957,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="5">
         <f>35+35+35+35+12.5+17.5+20</f>
@@ -3970,7 +3969,7 @@
         <v>15</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="5">
         <f>35+45+35+25+25+20+10+12.5</f>
@@ -3994,7 +3993,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="5">
         <f>35+45+45+12.5+10</f>
@@ -4017,7 +4016,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="5">
         <f>45+20+25</f>
@@ -4041,7 +4040,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="5">
         <f>35+25+30+35+12.5+12.5</f>
@@ -4053,7 +4052,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" s="5">
         <f>25+25+25+30</f>
@@ -4077,7 +4076,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="5">
         <f>45+25</f>
@@ -4086,7 +4085,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -4141,10 +4140,10 @@
     </row>
     <row r="53" spans="1:3" ht="36" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="C53" s="5">
         <f>35+35+35+35</f>
@@ -4156,7 +4155,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="5">
         <f>35+35+12.5+25+12.5+35+12.5</f>
@@ -4165,10 +4164,10 @@
     </row>
     <row r="55" spans="1:3" ht="36" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="C55" s="5">
         <f>35+30+35+35</f>
@@ -4177,10 +4176,10 @@
     </row>
     <row r="56" spans="1:3" ht="36" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="C56" s="5">
         <f>35+35+35+35</f>
@@ -4520,7 +4519,7 @@
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="5">
         <f>35+35+35+35</f>
@@ -4529,7 +4528,7 @@
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35" s="5">
         <f>35+35+35+35</f>
@@ -4547,7 +4546,7 @@
     </row>
     <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" s="5">
         <f>35+30+35+35</f>
@@ -4565,7 +4564,7 @@
     </row>
     <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="5">
         <f>35+35+10+10+12.5+25</f>
@@ -4583,7 +4582,7 @@
     </row>
     <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="5">
         <f>38+38+17.5+17.5+12.5</f>
@@ -4592,7 +4591,7 @@
     </row>
     <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="5">
         <f>35+25+35+25</f>
@@ -4664,7 +4663,7 @@
     </row>
     <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50" s="5">
         <f>25+25+12.5+12.5+10</f>
@@ -4709,7 +4708,7 @@
     </row>
     <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B55" s="5">
         <f>25+25</f>

--- a/railway/crh.xlsx
+++ b/railway/crh.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
   <si>
     <t>北京</t>
     <rPh sb="0" eb="1">
@@ -247,13 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>襄阳</t>
-    <rPh sb="0" eb="1">
-      <t>ykbj</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>南宁</t>
     <rPh sb="0" eb="1">
       <t>fmps</t>
@@ -261,13 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宜宾</t>
-    <rPh sb="0" eb="1">
-      <t>pepr</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>昆明</t>
     <rPh sb="0" eb="1">
       <t>jxje</t>
@@ -341,30 +327,6 @@
     <t>无锡</t>
     <rPh sb="0" eb="1">
       <t>fqqj</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阜阳</t>
-    <rPh sb="0" eb="1">
-      <t>wnbj</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九江</t>
-    <rPh sb="0" eb="1">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宜昌</t>
-    <rPh sb="0" eb="1">
-      <t>pejj</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,51 +389,6 @@
     </rPh>
     <rPh sb="45" eb="46">
       <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑合350北, 郑合350南
-京九350北, 京九350南
-徐阜350 /2</t>
-    <rPh sb="0" eb="1">
-      <t>udb</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>udb</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>yivt</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>twt</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>wnbj</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,57 +592,6 @@
     </rPh>
     <rPh sb="54" eb="55">
       <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渝昆350北, 渝昆350南
-成贵250北, 成贵250南
-成自宜350</t>
-    <rPh sb="0" eb="1">
-      <t>iwgj</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jxx</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>iwgj</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jxx</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>khgm</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>khgm</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>thd</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>peg</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1086,96 +952,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉宜250, 宜利200
-呼南350北, 呼南350南
-宜万(州)350 /2</t>
-    <rPh sb="0" eb="1">
-      <t>ic</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>peg</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>peg</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>tjh</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>kt</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>kt</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>peg</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>dnv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑万(州)350北, 郑万350南
-西武350北, 西武350南
-襄宜350</t>
-    <rPh sb="0" eb="1">
-      <t>udb</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>dnv</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>udb</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>dnv</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>gaic</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>gaic</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ykbj</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>peg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>京广350北, 京广350南
 沪昆350东, 沪昆350西
 常益长350, 长赣350
@@ -1429,54 +1205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商丘</t>
-    <rPh sb="0" eb="1">
-      <t>shang'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京九350北, 京九350南
-连新350东, 连新350西</t>
-    <rPh sb="0" eb="1">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yiu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>lpu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>usr</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>lpk</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>usr</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>sghg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哈大350 +10, 丹(东)大200</t>
     <rPh sb="0" eb="1">
       <t>kwgk</t>
@@ -2177,138 +1905,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>达州</t>
-    <rPh sb="0" eb="1">
-      <t>dpyt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包海350北, 包海350南
-成达万350东, 成达万350西</t>
-    <rPh sb="0" eb="1">
-      <t>qn</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>itx</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>qn</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>itx</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fm</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>dp</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>dnv</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>dn</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>dp</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>dnv</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>sghg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赣州</t>
-    <rPh sb="0" eb="1">
-      <t>gan'zhou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长赣350, 赣厦200
-昌赣350, 赣深350</t>
-    <rPh sb="0" eb="1">
-      <t>ta</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>gan'zhou</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>gan'zhou</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>xia'meng</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>gan'zhou</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>gan'zhou</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ipw</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上饶</t>
-    <rPh sb="0" eb="1">
-      <t>sang'rao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沪昆350东, 沪昆350西
-合福350北, 合福350南</t>
-    <rPh sb="0" eb="1">
-      <t>iyjx</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ai</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>iyjx</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>sghg</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ux</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>pyg</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>fm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成渝350, 成达万350 +10沪蓉
 成昆350, 成贵250
 西成250, 西(宁)成200
@@ -2432,61 +2028,6 @@
     </rPh>
     <rPh sb="56" eb="57">
       <t>fdbf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合九350, 昌九350
-昌九250城际 /2, 武九250
-池(州)九250 /2, 麻九350
-九景(岗山)250 /2</t>
-    <rPh sb="0" eb="1">
-      <t>wgk</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jj</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>jjvt</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>fdbf</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>gaic</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ibn</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>yss</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>jy</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>mmq</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>mmm</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3017,22 +2558,6 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>old</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通地级市</t>
-    <rPh sb="0" eb="1">
-      <t>uoce</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fb</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xe</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ymhj</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3138,6 +2663,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3207,16 +2735,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3227,9 +2752,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3507,10 +3036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3521,690 +3050,710 @@
     <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="4">
         <f>45+48+45+45+45+45+17.5+12.5+15</f>
         <v>318</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="D2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="4">
         <f>48+45+45+10+17.5+17.5+17.5+45</f>
         <v>245.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="D3" s="4">
+        <v>77.201257861635213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4">
         <f>38+38+35+35+25+17.5+10+12.5</f>
         <v>211</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="D4" s="4">
+        <v>66.352201257861637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4">
         <f>35+25+20+35+35+20+45</f>
         <v>215</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="D5" s="4">
+        <v>67.610062893081761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4">
         <f>35+35+25+35+15+12.5</f>
         <v>157.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="D6" s="4">
+        <v>49.528301886792448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="4">
         <f>25+25+12.5+12.5+10</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="4">
+        <v>26.729559748427672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="4">
         <f>35+35+25+20+25</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="D8" s="4">
+        <v>44.025157232704402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="4">
         <f>35+35+35+35+35+35+35+25+12.5+10+12.5</f>
         <v>305</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="D9" s="4">
+        <v>95.91194968553458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="4">
         <f>35+25+35+35+12.5+10+12.5+12.5</f>
         <v>177.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="D10" s="4">
+        <v>55.817610062893081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4">
         <f>45+20</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="D11" s="4">
+        <v>20.440251572327043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="4">
         <f>35+35+12.5+12.5</f>
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="D12" s="4">
+        <v>29.874213836477985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="4">
         <f>45+25+25+12.5</f>
         <v>107.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="D13" s="4">
+        <v>33.80503144654088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="4">
         <f>45+20</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="D14" s="4">
+        <v>20.440251572327043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="4">
         <f>38+38+25+10+35+25+17.5+35</f>
         <v>223.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="D15" s="4">
+        <v>70.283018867924525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="4">
         <f>38+38+17.5+17.5+12.5</f>
         <v>123.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="D16" s="4">
+        <v>38.836477987421382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4">
         <f>38+38+17.5+17.5+12.5+12.5</f>
         <v>136</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="D17" s="4">
+        <v>42.767295597484278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="4">
         <f>38+38+35+35+12.5+17.5</f>
         <v>176</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="D18" s="4">
+        <v>55.345911949685529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="4">
         <f>35+35+10+10+12.5+25</f>
         <v>127.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="D19" s="4">
+        <v>40.094339622641506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="4">
         <f>38+38+17.5+17.5+12.5</f>
         <v>123.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="D20" s="4">
+        <v>38.836477987421382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="4">
         <f>38+38+35+35+12.5+12.5</f>
         <v>171</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="D21" s="4">
+        <v>53.773584905660371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="4">
         <f>40+12.5+25+20</f>
         <v>97.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="D22" s="4">
+        <v>30.660377358490564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="4">
         <f>25+25</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="126" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="D23" s="4">
+        <v>15.723270440251572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="126" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="4">
         <f>35+35+35+35+35+25+25+12.5+12.5+12.5+12.5</f>
         <v>275</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="D24" s="4">
+        <v>86.477987421383645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="B25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="4">
         <f>35+35+17.5+35+35+17.5+12.5+17.5</f>
         <v>205</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="D25" s="4">
+        <v>64.465408805031444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="B26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="4">
         <f>35+25+12.5</f>
         <v>72.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="D26" s="4">
+        <v>22.79874213836478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="B27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="4">
         <f>45+25+35+12.5+20+12.5</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="D27" s="4">
+        <v>47.169811320754718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="4">
         <f>35+12.5+25+30</f>
         <v>102.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="D28" s="4">
+        <v>32.232704402515722</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="4">
         <f>35+25+35+25</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="D29" s="4">
+        <v>37.735849056603769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="B30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="4">
         <f>35+35+35+25+25+25+15+12.5</f>
         <v>207.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="D30" s="4">
+        <v>65.251572327044016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="5">
+      <c r="B31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="4">
         <f>35+35+35+35+35+35+12.5+12.5</f>
         <v>235</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="108" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="D31" s="4">
+        <v>73.899371069182379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="108" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="B32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="4">
         <f>45+40+35+17.5+25+35+10+10+10+10</f>
         <v>237.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="D32" s="4">
+        <v>74.685534591194966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="B33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="4">
         <f>35+25+10+35+20+10+25</f>
         <v>160</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="D33" s="4">
+        <v>50.314465408805027</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="4">
         <f>30+30+25+25+10+25+25</f>
         <v>170</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="108" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="D34" s="4">
+        <v>53.459119496855344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="108" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="4">
         <f>35+35+35+35+10+10+10+10+10</f>
         <v>190</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="D35" s="4">
+        <v>59.74842767295597</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="4">
         <f>35+25+25+25+35</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="D36" s="4">
+        <v>45.59748427672956</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="B37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="4">
         <f>35+35+35+35+12.5+17.5+20</f>
         <v>190</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="D37" s="4">
+        <v>59.74842767295597</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="5">
+      <c r="B38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="4">
         <f>35+45+35+25+25+20+10+12.5</f>
         <v>207.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="D38" s="4">
+        <v>65.251572327044016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="B39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="4">
         <f>20+25+35+35+30+35+10</f>
         <v>190</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="D39" s="4">
+        <v>59.74842767295597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="4">
         <f>35+45+45+12.5+10</f>
         <v>147.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="5">
+      <c r="D40" s="4">
+        <v>46.383647798742139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="5">
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="4">
         <f>45+20+25</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="D42" s="4">
+        <v>28.30188679245283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="5">
+      <c r="B43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="4">
         <f>35+35+35+35+35+35+25+25+12.5</f>
         <v>272.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="5">
+      <c r="D43" s="4">
+        <v>85.691823899371059</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="4">
         <f>35+25+30+35+12.5+12.5</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="5">
+      <c r="D44" s="4">
+        <v>47.169811320754718</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="4">
         <f>25+25+25+30</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="5">
+      <c r="D45" s="4">
+        <v>33.018867924528301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="36" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="4">
         <f>35+35+20</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="5">
+      <c r="D46" s="4">
+        <v>28.30188679245283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="4">
         <f>45+25</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="5">
-        <f>35+35+35+35</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="5">
-        <f>35+35+35+35+17.5</f>
-        <v>157.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="5">
-        <f>35+35+35+35+35</f>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="5">
-        <f>25+20+35+35+17.5</f>
-        <v>132.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="5">
-        <f>35+35+35+35</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="5">
-        <f>35+35+12.5+25+12.5+35+12.5</f>
-        <v>167.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="5">
-        <f>35+30+35+35</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="5">
-        <f>35+35+35+35</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="54" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="5">
-        <f>35+35+25+25+35</f>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="3"/>
+      <c r="D47" s="4">
+        <v>22.012578616352201</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A48:C48"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4213,519 +3762,629 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f>45+48+45+45+45+45+17.5+12.5+15</f>
         <v>318</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="7">
+        <f>B2/3.18</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>35+35+35+35+35+35+35+25+12.5+10+12.5</f>
         <v>305</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="7">
+        <f>B3/3.18</f>
+        <v>95.91194968553458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>35+35+35+35+35+25+25+12.5+12.5+12.5+12.5</f>
         <v>275</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="7">
+        <f>B4/3.18</f>
+        <v>86.477987421383645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <f>35+35+35+35+35+35+25+25+12.5</f>
         <v>272.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="7">
+        <f>B5/3.18</f>
+        <v>85.691823899371059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f>48+45+45+10+17.5+17.5+17.5+45</f>
         <v>245.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="7">
+        <f>B6/3.18</f>
+        <v>77.201257861635213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f>45+40+35+17.5+25+35+10+10+10+10</f>
         <v>237.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="7">
+        <f>B7/3.18</f>
+        <v>74.685534591194966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f>35+35+35+35+35+35+12.5+12.5</f>
         <v>235</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="C8" s="7">
+        <f>B8/3.18</f>
+        <v>73.899371069182379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <f>38+38+25+10+35+25+17.5+35</f>
         <v>223.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="C9" s="7">
+        <f>B9/3.18</f>
+        <v>70.283018867924525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <f>35+25+20+35+35+20+45</f>
         <v>215</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="7">
+        <f>B10/3.18</f>
+        <v>67.610062893081761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <f>38+38+35+35+25+17.5+10+12.5</f>
         <v>211</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="7">
+        <f>B11/3.18</f>
+        <v>66.352201257861637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <f>35+35+35+25+25+25+15+12.5</f>
         <v>207.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="C12" s="7">
+        <f>B12/3.18</f>
+        <v>65.251572327044016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <f>35+45+35+25+25+20+10+12.5</f>
         <v>207.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="C13" s="7">
+        <f>B13/3.18</f>
+        <v>65.251572327044016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <f>35+35+17.5+35+35+17.5+12.5+17.5</f>
         <v>205</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="C14" s="7">
+        <f>B14/3.18</f>
+        <v>64.465408805031444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="4">
         <f>35+35+35+35+10+10+10+10+10</f>
         <v>190</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="C15" s="7">
+        <f>B15/3.18</f>
+        <v>59.74842767295597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <f>35+35+35+35+12.5+17.5+20</f>
         <v>190</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="7">
+        <f>B16/3.18</f>
+        <v>59.74842767295597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f>20+25+35+35+30+35+10</f>
         <v>190</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="7">
+        <f>B17/3.18</f>
+        <v>59.74842767295597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <f>35+25+35+35+12.5+10+12.5+12.5</f>
         <v>177.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="C18" s="7">
+        <f>B18/3.18</f>
+        <v>55.817610062893081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <f>38+38+35+35+12.5+17.5</f>
         <v>176</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5">
-        <f>35+35+35+35+35</f>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="C19" s="7">
+        <f>B19/3.18</f>
+        <v>55.345911949685529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B20" s="4">
         <f>38+38+35+35+12.5+12.5</f>
         <v>171</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="5">
+      <c r="C20" s="7">
+        <f>B20/3.18</f>
+        <v>53.773584905660371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4">
         <f>30+30+25+25+10+25+25</f>
         <v>170</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="5">
-        <f>35+35+12.5+25+12.5+35+12.5</f>
-        <v>167.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="C21" s="7">
+        <f>B21/3.18</f>
+        <v>53.459119496855344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B22" s="4">
         <f>35+25+10+35+20+10+25</f>
         <v>160</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="C22" s="7">
+        <f>B22/3.18</f>
+        <v>50.314465408805027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B23" s="4">
         <f>35+35+25+35+15+12.5</f>
         <v>157.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="5">
-        <f>35+35+35+35+17.5</f>
-        <v>157.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="5">
-        <f>35+35+25+25+35</f>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="C23" s="7">
+        <f>B23/3.18</f>
+        <v>49.528301886792448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B24" s="4">
         <f>45+25+35+12.5+20+12.5</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="5">
+      <c r="C24" s="7">
+        <f>B24/3.18</f>
+        <v>47.169811320754718</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="4">
         <f>35+25+30+35+12.5+12.5</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="5">
+      <c r="C25" s="7">
+        <f>B25/3.18</f>
+        <v>47.169811320754718</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="4">
         <f>35+45+45+12.5+10</f>
         <v>147.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="5">
+      <c r="C26" s="7">
+        <f>B26/3.18</f>
+        <v>46.383647798742139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="4">
         <f>35+25+25+25+35</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="C27" s="7">
+        <f>B27/3.18</f>
+        <v>45.59748427672956</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B28" s="4">
         <f>35+35+25+20+25</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="5">
-        <f>35+35+35+35</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="5">
-        <f>35+35+35+35</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="5">
-        <f>35+35+35+35</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="5">
+      <c r="C28" s="7">
+        <f>B28/3.18</f>
+        <v>44.025157232704402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="4">
         <f>38+38+17.5+17.5+12.5+12.5</f>
         <v>136</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="5">
-        <f>35+30+35+35</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="5">
-        <f>25+20+35+35+17.5</f>
-        <v>132.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="5">
+      <c r="C29" s="7">
+        <f>B29/3.18</f>
+        <v>42.767295597484278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="4">
         <f>35+35+10+10+12.5+25</f>
         <v>127.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="5">
+      <c r="C30" s="7">
+        <f>B30/3.18</f>
+        <v>40.094339622641506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4">
         <f>38+38+17.5+17.5+12.5</f>
         <v>123.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="5">
+      <c r="C31" s="7">
+        <f>B31/3.18</f>
+        <v>38.836477987421382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="4">
         <f>38+38+17.5+17.5+12.5</f>
         <v>123.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="5">
+      <c r="C32" s="7">
+        <f>B32/3.18</f>
+        <v>38.836477987421382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="4">
         <f>35+25+35+25</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="C33" s="7">
+        <f>B33/3.18</f>
+        <v>37.735849056603769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B34" s="4">
         <f>45+25+25+12.5</f>
         <v>107.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="5">
+      <c r="C34" s="7">
+        <f>B34/3.18</f>
+        <v>33.80503144654088</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4">
         <f>25+25+25+30</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="5">
+      <c r="C35" s="7">
+        <f>B35/3.18</f>
+        <v>33.018867924528301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4">
         <f>35+12.5+25+30</f>
         <v>102.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="C36" s="7">
+        <f>B36/3.18</f>
+        <v>32.232704402515722</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B37" s="4">
         <f>40+12.5+25+20</f>
         <v>97.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="C37" s="7">
+        <f>B37/3.18</f>
+        <v>30.660377358490564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B38" s="4">
         <f>35+35+12.5+12.5</f>
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="5">
+      <c r="C38" s="7">
+        <f>B38/3.18</f>
+        <v>29.874213836477985</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
         <f>45+20+25</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="5">
+      <c r="C39" s="7">
+        <f>B39/3.18</f>
+        <v>28.30188679245283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="4">
         <f>35+35+20</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="5">
+      <c r="C40" s="7">
+        <f>B40/3.18</f>
+        <v>28.30188679245283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="4">
         <f>25+25+12.5+12.5+10</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="C41" s="7">
+        <f>B41/3.18</f>
+        <v>26.729559748427672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B42" s="4">
         <f>35+25+12.5</f>
         <v>72.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="5">
+      <c r="C42" s="7">
+        <f>B42/3.18</f>
+        <v>22.79874213836478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="4">
         <f>45+25</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="C43" s="7">
+        <f>B43/3.18</f>
+        <v>22.012578616352201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B44" s="4">
         <f>45+20</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+      <c r="C44" s="7">
+        <f>B44/3.18</f>
+        <v>20.440251572327043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B45" s="4">
         <f>45+20</f>
         <v>65</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="5">
+      <c r="C45" s="7">
+        <f>B45/3.18</f>
+        <v>20.440251572327043</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="4">
         <f>25+25</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="5">
+      <c r="C46" s="7">
+        <f>B46/3.18</f>
+        <v>15.723270440251572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="4">
         <v>0</v>
       </c>
+      <c r="C47" s="7">
+        <f>B47/3.18</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B57">
-    <sortCondition descending="1" ref="B1"/>
+  <sortState ref="A2:C47">
+    <sortCondition descending="1" ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
